--- a/docs/Simple/Simple Example.xlsx
+++ b/docs/Simple/Simple Example.xlsx
@@ -345,7 +345,7 @@
     <t>group_members</t>
   </si>
   <si>
-    <t xml:space="preserve"> Group member id</t>
+    <t>Group member id</t>
   </si>
   <si>
     <t>IntInt</t>

--- a/docs/Simple/Simple Example.xlsx
+++ b/docs/Simple/Simple Example.xlsx
@@ -1616,7 +1616,7 @@
         <v>90</v>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;F2,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -1639,7 +1639,7 @@
         <v>87</v>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;F3,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -1662,7 +1662,7 @@
         <v>109</v>
       </c>
       <c r="G4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;F4,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;F4,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -1685,7 +1685,7 @@
         <v>111</v>
       </c>
       <c r="G5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;F5,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;F5,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>
@@ -1880,13 +1880,13 @@
         <v>109</v>
       </c>
       <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;H2,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J2" t="s" s="0">
         <v>81</v>
       </c>
       <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D2&amp;"."&amp;J2,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -1915,13 +1915,13 @@
         <v>111</v>
       </c>
       <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;H3,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J3" t="s" s="0">
         <v>81</v>
       </c>
       <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D3&amp;"."&amp;J3,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>

--- a/docs/Simple/Simple Example.xlsx
+++ b/docs/Simple/Simple Example.xlsx
@@ -669,7 +669,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A2,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C2" t="s" s="0">
         <v>56</v>
@@ -695,7 +695,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A3,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C3" t="s" s="0">
         <v>77</v>
@@ -721,7 +721,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A4,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C4" t="s" s="0">
         <v>97</v>
@@ -747,7 +747,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A5,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C5" t="s" s="0">
         <v>104</v>
@@ -848,7 +848,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>60</v>
@@ -895,7 +895,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>60</v>
@@ -942,7 +942,7 @@
         <v>77</v>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(B4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>60</v>
@@ -995,7 +995,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(B5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D5" t="s" s="0">
         <v>60</v>
@@ -1042,7 +1042,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(B6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D6" t="s" s="0">
         <v>60</v>
@@ -1089,7 +1089,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(B7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D7" t="s" s="0">
         <v>92</v>
@@ -1139,7 +1139,7 @@
         <v>97</v>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(B8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D8" t="s" s="0">
         <v>60</v>
@@ -1192,7 +1192,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="0">
-        <f>VLOOKUP(B9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D9" t="s" s="0">
         <v>60</v>
@@ -1239,7 +1239,7 @@
         <v>97</v>
       </c>
       <c r="C10" s="0">
-        <f>VLOOKUP(B10,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B10,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D10" t="s" s="0">
         <v>92</v>
@@ -1289,7 +1289,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="0">
-        <f>VLOOKUP(B11,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B11,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D11" t="s" s="0">
         <v>60</v>
@@ -1339,7 +1339,7 @@
         <v>104</v>
       </c>
       <c r="C12" s="0">
-        <f>VLOOKUP(B12,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B12,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D12" t="s" s="0">
         <v>60</v>
@@ -1389,7 +1389,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="0">
-        <f>VLOOKUP(B13,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B13,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D13" t="s" s="0">
         <v>60</v>
@@ -1439,7 +1439,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="0">
-        <f>VLOOKUP(B14,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B14,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D14" t="s" s="0">
         <v>92</v>
@@ -1525,7 +1525,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>94</v>
@@ -1545,7 +1545,7 @@
         <v>104</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>113</v>
@@ -1601,22 +1601,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F2" t="s" s="0">
         <v>90</v>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -1624,22 +1624,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F3" t="s" s="0">
         <v>87</v>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -1647,22 +1647,22 @@
         <v>115</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F4" t="s" s="0">
         <v>109</v>
       </c>
       <c r="G4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;F4,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;F4,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -1670,22 +1670,22 @@
         <v>115</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F5" t="s" s="0">
         <v>111</v>
       </c>
       <c r="G5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;F5,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;F5,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1744,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>109</v>
@@ -1759,7 +1759,7 @@
         <v>97</v>
       </c>
       <c r="H2" s="0">
-        <f>VLOOKUP(G2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I2" t="s" s="0">
         <v>118</v>
@@ -1779,7 +1779,7 @@
         <v>104</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>111</v>
@@ -1794,7 +1794,7 @@
         <v>77</v>
       </c>
       <c r="H3" s="0">
-        <f>VLOOKUP(G3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I3" t="s" s="0">
         <v>118</v>
@@ -1859,34 +1859,34 @@
         <v>119</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>97</v>
       </c>
       <c r="E2" s="0">
-        <f>VLOOKUP(D2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H2" t="s" s="0">
         <v>109</v>
       </c>
       <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J2" t="s" s="0">
         <v>81</v>
       </c>
       <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -1894,34 +1894,34 @@
         <v>121</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>77</v>
       </c>
       <c r="E3" s="0">
-        <f>VLOOKUP(D3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H3" t="s" s="0">
         <v>111</v>
       </c>
       <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J3" t="s" s="0">
         <v>81</v>
       </c>
       <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>

--- a/docs/Simple/Simple Example.xlsx
+++ b/docs/Simple/Simple Example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="106">
   <si>
     <t>Ид</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Код индекса</t>
   </si>
   <si>
-    <t>Ид индекса</t>
-  </si>
-  <si>
     <t>Наименование индекса</t>
   </si>
   <si>
@@ -102,16 +99,13 @@
     <t>Код отношения</t>
   </si>
   <si>
-    <t>Ид отношения</t>
-  </si>
-  <si>
     <t>Наименование отношения</t>
   </si>
   <si>
     <t>Тип отношения</t>
   </si>
   <si>
-    <t>Ид ссылочной таблицы</t>
+    <t>Имя ссылочной таблицы</t>
   </si>
   <si>
     <t>Наименование ссылочной таблицы</t>
@@ -270,15 +264,12 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>lastname_firstname</t>
+    <t>persons_lastname_firstname</t>
   </si>
   <si>
     <t>Search index by lastname and firstname</t>
   </si>
   <si>
-    <t>Person_lastname_firstname</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -324,13 +315,13 @@
     <t>person_id</t>
   </si>
   <si>
-    <t>person_group_ids</t>
+    <t>group_members_person_group_ids</t>
   </si>
   <si>
     <t>Person id in each group must be unique</t>
   </si>
   <si>
-    <t>GroupMember_person_group_ids</t>
+    <t>group_members_group_id</t>
   </si>
   <si>
     <t>Relation to groups</t>
@@ -339,16 +330,13 @@
     <t>ManyToOne</t>
   </si>
   <si>
-    <t>Restrict</t>
-  </si>
-  <si>
-    <t>GroupMember_groupId</t>
+    <t>NoAction</t>
+  </si>
+  <si>
+    <t>group_members_person_id</t>
   </si>
   <si>
     <t>Relation to persons</t>
-  </si>
-  <si>
-    <t>GroupMember_personId</t>
   </si>
   <si>
     <t>IntInt</t>
@@ -453,13 +441,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -469,7 +457,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,15 +465,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="10">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="10">
-        <v>42</v>
-      </c>
       <c r="D1" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s" s="10">
         <v>2</v>
       </c>
     </row>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +495,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="11">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s" s="11">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s" s="11">
         <v>41</v>
-      </c>
-      <c r="B1" t="s" s="11">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="11">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -545,30 +539,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -612,106 +606,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>53</v>
-      </c>
       <c r="H2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="G3" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>70</v>
-      </c>
       <c r="H3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -776,679 +770,679 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="K2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="O2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="H3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="J3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>69</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s" s="0">
+      <c r="K5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J5" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="O5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>69</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H6" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="I6" t="s" s="0">
+      <c r="J6" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J6" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="O6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>69</v>
-      </c>
       <c r="D7" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="H7" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="I7" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="J7" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="K7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="O7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>69</v>
-      </c>
       <c r="D8" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="H8" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="I8" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="H8" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="J8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>88</v>
-      </c>
       <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
         <v>73</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" t="s">
-        <v>76</v>
-      </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>89</v>
-      </c>
       <c r="F10" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H10" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="I10" t="s" s="0">
+      <c r="J10" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J10" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="O10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="H11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="I11" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="J11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="K11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J11" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M11" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="O11" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="H12" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="I12" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="H12" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="J12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="F13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="J13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="H13" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>76</v>
-      </c>
       <c r="M13" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="H16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="I16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="J16" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="K16" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J16" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="K16" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="O16" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="H17" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="I17" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="H17" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I17" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="J17" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1466,68 +1460,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="5">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="F1" t="s" s="5">
         <v>23</v>
-      </c>
-      <c r="F1" t="s" s="5">
-        <v>24</v>
       </c>
       <c r="G1" t="s" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <f>B2&amp;"_"&amp;D2</f>
+      <c r="A2" t="s" s="0">
+        <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
+        <v>67</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>66</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <f>B3&amp;"_"&amp;D3</f>
+      <c r="A3" t="s" s="0">
+        <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C3" s="0">
-        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
+        <v>91</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1545,117 +1539,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="6">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="F1" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="G1" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="H1" t="s" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,2,0)</f>
-      </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,3,0)</f>
-      </c>
-      <c r="D2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,4,0)</f>
-      </c>
-      <c r="E2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,5,0)</f>
-      </c>
-      <c r="F2" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
+      <c r="G2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,2,0)</f>
-      </c>
-      <c r="C3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,3,0)</f>
-      </c>
-      <c r="D3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,4,0)</f>
-      </c>
-      <c r="E3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,5,0)</f>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
+        <v>65</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B4" s="0">
-        <f>VLOOKUP(A4,'Индексы'!A:E,2,0)</f>
-      </c>
-      <c r="C4" s="0">
-        <f>VLOOKUP(A4,'Индексы'!A:E,3,0)</f>
-      </c>
-      <c r="D4" s="0">
-        <f>VLOOKUP(A4,'Индексы'!A:E,4,0)</f>
-      </c>
-      <c r="E4" s="0">
-        <f>VLOOKUP(A4,'Индексы'!A:E,5,0)</f>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="G4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;F4,'Поля таблиц'!A:G,7,0)</f>
+        <v>58</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B5" s="0">
-        <f>VLOOKUP(A5,'Индексы'!A:E,2,0)</f>
-      </c>
-      <c r="C5" s="0">
-        <f>VLOOKUP(A5,'Индексы'!A:E,3,0)</f>
-      </c>
-      <c r="D5" s="0">
-        <f>VLOOKUP(A5,'Индексы'!A:E,4,0)</f>
-      </c>
-      <c r="E5" s="0">
-        <f>VLOOKUP(A5,'Индексы'!A:E,5,0)</f>
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="G5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;F5,'Поля таблиц'!A:G,7,0)</f>
+        <v>58</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1673,107 +1676,107 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="7">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="G1" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="H1" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="I1" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="J1" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="I1" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="7">
-        <v>32</v>
       </c>
       <c r="K1" t="s" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <f>B2&amp;"_"&amp;D2</f>
+      <c r="A2" t="s" s="0">
+        <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
+        <v>91</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="H2" s="0">
-        <f>VLOOKUP(G2,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <f>B3&amp;"_"&amp;D3</f>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C3" s="0">
-        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>107</v>
-      </c>
       <c r="F3" t="s" s="0">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="H3" s="0">
-        <f>VLOOKUP(G3,'Таблицы'!C:D,2,0)</f>
+        <v>67</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>66</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1791,107 +1794,107 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="8">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="I1" t="s" s="8">
+      <c r="K1" t="s" s="8">
         <v>34</v>
-      </c>
-      <c r="J1" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s" s="8">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="B2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,3,0)</f>
+        <v>65</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="E2" s="0">
-        <f>VLOOKUP(D2,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,5,0)</f>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
-      </c>
       <c r="J2" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
+        <v>71</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="B3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,3,0)</f>
+        <v>65</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E3" s="0">
-        <f>VLOOKUP(D3,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,5,0)</f>
+        <v>103</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>66</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
+        <v>96</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
+        <v>71</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="9">
         <v>12</v>
@@ -1924,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s" s="9">
         <v>13</v>
@@ -1939,10 +1942,10 @@
         <v>17</v>
       </c>
       <c r="K1" t="s" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s" s="9">
         <v>2</v>
@@ -1950,72 +1953,72 @@
     </row>
     <row r="2">
       <c r="B2" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>74</v>
-      </c>
       <c r="H2" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s" s="0">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Simple/Simple Example.xlsx
+++ b/docs/Simple/Simple Example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="119">
   <si>
     <t>Ид</t>
   </si>
@@ -264,6 +264,39 @@
     <t>lastname</t>
   </si>
   <si>
+    <t>Search index</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Person attributes</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>jsonb</t>
+  </si>
+  <si>
+    <t>Map string: string</t>
+  </si>
+  <si>
+    <t>ExternalIds</t>
+  </si>
+  <si>
+    <t>Person external Ids</t>
+  </si>
+  <si>
+    <t>externalIds</t>
+  </si>
+  <si>
+    <t>external_ids</t>
+  </si>
+  <si>
     <t>persons_lastname_firstname</t>
   </si>
   <si>
@@ -340,6 +373,12 @@
   </si>
   <si>
     <t>IntInt</t>
+  </si>
+  <si>
+    <t>External Ids</t>
+  </si>
+  <si>
+    <t>StringJsonB</t>
   </si>
 </sst>
 </file>
@@ -664,16 +703,16 @@
         <v>65</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>68</v>
@@ -690,16 +729,16 @@
         <v>65</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>68</v>
@@ -715,7 +754,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -993,22 +1032,22 @@
         <v>66</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>54</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="0">
         <v>47</v>
@@ -1034,19 +1073,19 @@
         <v>66</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>47</v>
@@ -1058,7 +1097,7 @@
         <v>58</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1066,43 +1105,40 @@
         <v>65</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>74</v>
       </c>
       <c r="M9" t="s">
         <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
         <v>47</v>
@@ -1113,31 +1149,31 @@
         <v>65</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>54</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>56</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>47</v>
@@ -1154,31 +1190,31 @@
         <v>65</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="0">
         <v>47</v>
@@ -1195,39 +1231,45 @@
         <v>65</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="M12" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
         <v>58</v>
       </c>
-      <c r="O12" t="s" s="0">
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1236,37 +1278,34 @@
         <v>65</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>47</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>74</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>58</v>
@@ -1280,42 +1319,39 @@
         <v>65</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="N14" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>47</v>
       </c>
     </row>
@@ -1324,42 +1360,39 @@
         <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="N15" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="O15" t="s" s="0">
         <v>47</v>
       </c>
     </row>
@@ -1368,34 +1401,37 @@
         <v>65</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="0">
         <v>47</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>74</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>58</v>
@@ -1409,39 +1445,168 @@
         <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="O19" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G20" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H20" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I20" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="J17" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="M17" t="s" s="0">
+      <c r="J20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="O17" t="s" s="0">
+      <c r="O20" t="s" s="0">
         <v>47</v>
       </c>
     </row>
@@ -1492,10 +1657,10 @@
         <v>66</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>47</v>
@@ -1506,16 +1671,16 @@
         <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>58</v>
@@ -1574,10 +1739,10 @@
         <v>66</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>79</v>
@@ -1597,10 +1762,10 @@
         <v>66</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>76</v>
@@ -1614,25 +1779,25 @@
         <v>65</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>58</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -1640,22 +1805,22 @@
         <v>65</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>58</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>70</v>
@@ -1714,31 +1879,31 @@
         <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>47</v>
@@ -1749,19 +1914,19 @@
         <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>67</v>
@@ -1770,10 +1935,10 @@
         <v>66</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>47</v>
@@ -1832,34 +1997,34 @@
         <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -1867,16 +2032,16 @@
         <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>67</v>
@@ -1885,7 +2050,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>70</v>
@@ -1904,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1956,16 +2121,16 @@
         <v>69</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>72</v>
@@ -1988,19 +2153,19 @@
     </row>
     <row r="3">
       <c r="B3" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>72</v>
@@ -2018,6 +2183,41 @@
         <v>47</v>
       </c>
       <c r="M3" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s" s="0">
         <v>47</v>
       </c>
     </row>

--- a/docs/Simple/Simple Example.xlsx
+++ b/docs/Simple/Simple Example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="122">
   <si>
     <t>Ид</t>
   </si>
@@ -315,6 +315,12 @@
     <t>Group Id</t>
   </si>
   <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
     <t>Group name</t>
   </si>
   <si>
@@ -373,6 +379,9 @@
   </si>
   <si>
     <t>IntInt</t>
+  </si>
+  <si>
+    <t>ShortSmallint</t>
   </si>
   <si>
     <t>External Ids</t>
@@ -729,16 +738,16 @@
         <v>65</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>68</v>
@@ -1246,13 +1255,13 @@
         <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
         <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -1287,22 +1296,22 @@
         <v>93</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s" s="0">
         <v>54</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>56</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>47</v>
@@ -1401,16 +1410,16 @@
         <v>65</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>71</v>
@@ -1445,28 +1454,28 @@
         <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -1489,25 +1498,25 @@
         <v>65</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>73</v>
@@ -1533,13 +1542,13 @@
         <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>52</v>
@@ -1574,13 +1583,13 @@
         <v>65</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>59</v>
@@ -1671,16 +1680,16 @@
         <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>58</v>
@@ -1779,22 +1788,22 @@
         <v>65</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>58</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>96</v>
@@ -1805,22 +1814,22 @@
         <v>65</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>58</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>70</v>
@@ -1879,19 +1888,19 @@
         <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>94</v>
@@ -1900,10 +1909,10 @@
         <v>93</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>47</v>
@@ -1914,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>112</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>67</v>
@@ -1935,10 +1944,10 @@
         <v>66</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>47</v>
@@ -1997,16 +2006,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>94</v>
@@ -2015,7 +2024,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>96</v>
@@ -2032,16 +2041,16 @@
         <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>67</v>
@@ -2050,7 +2059,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>70</v>
@@ -2121,16 +2130,16 @@
         <v>69</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>72</v>
@@ -2156,22 +2165,22 @@
         <v>95</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>96</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>47</v>
@@ -2197,10 +2206,10 @@
         <v>90</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>54</v>
